--- a/biology/Histoire de la zoologie et de la botanique/Sergueï_Ognev/Sergueï_Ognev.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Sergueï_Ognev/Sergueï_Ognev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Ognev</t>
+          <t>Sergueï_Ognev</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergueï Ivanovitch Ognev (en russe : Сергей Иванович Огнёв, né en 1886 et mort en 1951, était un zoologiste russe. Il est connu pour ses travaux en mammalogie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sergueï Ivanovitch Ognev (en russe : Сергей Иванович Огнёв, né en 1886 et mort en 1951, était un zoologiste russe. Il est connu pour ses travaux en mammalogie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sergue%C3%AF_Ognev</t>
+          <t>Sergueï_Ognev</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergueï Ognev est diplômé de l'Université d'État de Moscou en 1910. La même année, il publie sa première monographie. En 1928, il devient professeur à l'Institut pédagogique de l'Université de Moscou[1].
-Sergueï Ivanovitch Ognev a publié de nombreux livres sur la zoologie et l'économie[1]. Son travail, intitulé Mammals of Russia and adjacent territories, n'a jamais été achevé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sergueï Ognev est diplômé de l'Université d'État de Moscou en 1910. La même année, il publie sa première monographie. En 1928, il devient professeur à l'Institut pédagogique de l'Université de Moscou.
+Sergueï Ivanovitch Ognev a publié de nombreux livres sur la zoologie et l'économie. Son travail, intitulé Mammals of Russia and adjacent territories, n'a jamais été achevé.
 </t>
         </is>
       </c>
